--- a/Code/Results/Cases/Case_9_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_19/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.474219859978461</v>
+        <v>3.472017177529779</v>
       </c>
       <c r="C2">
-        <v>1.02811699237725</v>
+        <v>1.176437060614944</v>
       </c>
       <c r="D2">
-        <v>0.02011101739606325</v>
+        <v>0.02477352326366145</v>
       </c>
       <c r="E2">
-        <v>1.358274798902627</v>
+        <v>1.354361846285315</v>
       </c>
       <c r="F2">
-        <v>1.078109549010392</v>
+        <v>0.8963399825386631</v>
       </c>
       <c r="G2">
-        <v>1.032849596027376</v>
+        <v>0.8044710428734305</v>
       </c>
       <c r="H2">
-        <v>0.01164501535812723</v>
+        <v>0.01121313178420857</v>
       </c>
       <c r="I2">
-        <v>0.004281832957567122</v>
+        <v>0.004137511562478657</v>
       </c>
       <c r="J2">
-        <v>0.6252050026923257</v>
+        <v>0.5700498537963625</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1903743034325309</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.08855299244282122</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -474,46 +480,52 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.021989358764358</v>
+        <v>3.023243239875796</v>
       </c>
       <c r="C3">
-        <v>0.9014966843887748</v>
+        <v>1.020930778832764</v>
       </c>
       <c r="D3">
-        <v>0.01977646842579084</v>
+        <v>0.02325249618723291</v>
       </c>
       <c r="E3">
-        <v>1.178459003398018</v>
+        <v>1.176812841370975</v>
       </c>
       <c r="F3">
-        <v>0.9696162108602664</v>
+        <v>0.8178861144433967</v>
       </c>
       <c r="G3">
-        <v>0.9253430195774399</v>
+        <v>0.7309768760700734</v>
       </c>
       <c r="H3">
-        <v>0.007839808122884984</v>
+        <v>0.007676947435456827</v>
       </c>
       <c r="I3">
-        <v>0.002110246848437747</v>
+        <v>0.002289734492210815</v>
       </c>
       <c r="J3">
-        <v>0.580102107380867</v>
+        <v>0.5385386669912435</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1941228435805762</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.08095573282625423</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -527,46 +539,52 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.744673827015959</v>
+        <v>2.747675200355559</v>
       </c>
       <c r="C4">
-        <v>0.8245197559692201</v>
+        <v>0.9265153198007283</v>
       </c>
       <c r="D4">
-        <v>0.01955811837033217</v>
+        <v>0.02232721798847237</v>
       </c>
       <c r="E4">
-        <v>1.068730738007631</v>
+        <v>1.068320908712906</v>
       </c>
       <c r="F4">
-        <v>0.9038123042931119</v>
+        <v>0.7701216689512904</v>
       </c>
       <c r="G4">
-        <v>0.8600439526664729</v>
+        <v>0.6863870645473327</v>
       </c>
       <c r="H4">
-        <v>0.00581913681144508</v>
+        <v>0.005782036943214997</v>
       </c>
       <c r="I4">
-        <v>0.001211663658342133</v>
+        <v>0.001479051865435288</v>
       </c>
       <c r="J4">
-        <v>0.5528372069791203</v>
+        <v>0.5191265710219142</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1963291520046155</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.07702270070180717</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -580,46 +598,52 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.631674993632714</v>
+        <v>2.635308460545275</v>
       </c>
       <c r="C5">
-        <v>0.7948880277574517</v>
+        <v>0.8897527521544362</v>
       </c>
       <c r="D5">
-        <v>0.01949659369530821</v>
+        <v>0.02200027065970289</v>
       </c>
       <c r="E5">
-        <v>1.024128780109848</v>
+        <v>1.024192368259634</v>
       </c>
       <c r="F5">
-        <v>0.8751942934467252</v>
+        <v>0.7491807718792671</v>
       </c>
       <c r="G5">
-        <v>0.831319636270166</v>
+        <v>0.666584316737584</v>
       </c>
       <c r="H5">
-        <v>0.005066244672985443</v>
+        <v>0.005071758685293082</v>
       </c>
       <c r="I5">
-        <v>0.001005884351792385</v>
+        <v>0.001296267271497342</v>
       </c>
       <c r="J5">
-        <v>0.5406602899694093</v>
+        <v>0.5102709476784781</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.196737393296857</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.07530085066048997</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -633,46 +657,52 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.612867309937087</v>
+        <v>2.616604354671153</v>
       </c>
       <c r="C6">
-        <v>0.7918977328005496</v>
+        <v>0.8854618460131007</v>
       </c>
       <c r="D6">
-        <v>0.01952436039546868</v>
+        <v>0.02200545444889812</v>
       </c>
       <c r="E6">
-        <v>1.016700067092657</v>
+        <v>1.01684491541873</v>
       </c>
       <c r="F6">
-        <v>0.868038478031508</v>
+        <v>0.7438069976133903</v>
       </c>
       <c r="G6">
-        <v>0.8237964359754955</v>
+        <v>0.6611787601581369</v>
       </c>
       <c r="H6">
-        <v>0.004942867538355378</v>
+        <v>0.004955331418645237</v>
       </c>
       <c r="I6">
-        <v>0.001058262499284091</v>
+        <v>0.001367935867142123</v>
       </c>
       <c r="J6">
-        <v>0.5372276462534984</v>
+        <v>0.5076721570052456</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1962362451235684</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.07466328898656371</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -686,46 +716,52 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.743019796946328</v>
+        <v>2.745977903384357</v>
       </c>
       <c r="C7">
-        <v>0.8293783081035997</v>
+        <v>0.9302713052421154</v>
       </c>
       <c r="D7">
-        <v>0.01966159411433566</v>
+        <v>0.02258628128438644</v>
       </c>
       <c r="E7">
-        <v>1.068045090292557</v>
+        <v>1.06759582271026</v>
       </c>
       <c r="F7">
-        <v>0.8968182936246336</v>
+        <v>0.7617200627852299</v>
       </c>
       <c r="G7">
-        <v>0.8520928018180882</v>
+        <v>0.6831000460317114</v>
       </c>
       <c r="H7">
-        <v>0.005801126682735136</v>
+        <v>0.005760494716314013</v>
       </c>
       <c r="I7">
-        <v>0.001411636859496745</v>
+        <v>0.001719873845106079</v>
       </c>
       <c r="J7">
-        <v>0.5487988252614002</v>
+        <v>0.5078466501546899</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1941702028998407</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.07554895856334554</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -739,46 +775,52 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.317998570666248</v>
+        <v>3.316867412797933</v>
       </c>
       <c r="C8">
-        <v>0.9913213189651913</v>
+        <v>1.126911873130268</v>
       </c>
       <c r="D8">
-        <v>0.02013938315023367</v>
+        <v>0.0248246366195275</v>
       </c>
       <c r="E8">
-        <v>1.295994138994942</v>
+        <v>1.292714664318282</v>
       </c>
       <c r="F8">
-        <v>1.031714722817298</v>
+        <v>0.8526410935471773</v>
       </c>
       <c r="G8">
-        <v>0.9855351338836442</v>
+        <v>0.7806807390267636</v>
       </c>
       <c r="H8">
-        <v>0.01025059355684719</v>
+        <v>0.009900815368482873</v>
       </c>
       <c r="I8">
-        <v>0.003667899742517911</v>
+        <v>0.003697015834410067</v>
       </c>
       <c r="J8">
-        <v>0.6044090505437936</v>
+        <v>0.5285823070425408</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1878602916942071</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.08277658145672717</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -792,46 +834,52 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.450750947797701</v>
+        <v>4.438241970232298</v>
       </c>
       <c r="C9">
-        <v>1.306512182666495</v>
+        <v>1.515547716412641</v>
       </c>
       <c r="D9">
-        <v>0.02077936238594269</v>
+        <v>0.02860515188340429</v>
       </c>
       <c r="E9">
-        <v>1.750163122641226</v>
+        <v>1.74002962158265</v>
       </c>
       <c r="F9">
-        <v>1.316151030213078</v>
+        <v>1.055128380750276</v>
       </c>
       <c r="G9">
-        <v>1.268111747594531</v>
+        <v>0.9779194141127903</v>
       </c>
       <c r="H9">
-        <v>0.0218232131052174</v>
+        <v>0.02052080077101492</v>
       </c>
       <c r="I9">
-        <v>0.01169173148209879</v>
+        <v>0.01010532856605728</v>
       </c>
       <c r="J9">
-        <v>0.7245662219103508</v>
+        <v>0.6032876725676743</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.179561263976808</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1066248037722346</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -845,46 +893,52 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.287474066081245</v>
+        <v>5.263466870399782</v>
       </c>
       <c r="C10">
-        <v>1.545096867586608</v>
+        <v>1.800023863545505</v>
       </c>
       <c r="D10">
-        <v>0.02194629283577498</v>
+        <v>0.03333463919539881</v>
       </c>
       <c r="E10">
-        <v>1.986778292705282</v>
+        <v>1.970545636317738</v>
       </c>
       <c r="F10">
-        <v>1.495388956218548</v>
+        <v>1.164530063994832</v>
       </c>
       <c r="G10">
-        <v>1.440188576083557</v>
+        <v>1.114732264995808</v>
       </c>
       <c r="H10">
-        <v>0.03164477554665268</v>
+        <v>0.02936105670874722</v>
       </c>
       <c r="I10">
-        <v>0.02041058367939197</v>
+        <v>0.01686294540091104</v>
       </c>
       <c r="J10">
-        <v>0.7953366679815872</v>
+        <v>0.5988162499228196</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1658659631992663</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1201670057495363</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -898,46 +952,52 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.655235779713337</v>
+        <v>5.6275294194254</v>
       </c>
       <c r="C11">
-        <v>1.65059506853629</v>
+        <v>1.87265610342132</v>
       </c>
       <c r="D11">
-        <v>0.03166843851581191</v>
+        <v>0.04944660729195505</v>
       </c>
       <c r="E11">
-        <v>1.29422522213595</v>
+        <v>1.279593066194408</v>
       </c>
       <c r="F11">
-        <v>1.288006713751329</v>
+        <v>0.9800267336684243</v>
       </c>
       <c r="G11">
-        <v>1.190536207815455</v>
+        <v>0.9662999486566122</v>
       </c>
       <c r="H11">
-        <v>0.04697404542361738</v>
+        <v>0.04464928401192836</v>
       </c>
       <c r="I11">
-        <v>0.02304023489691964</v>
+        <v>0.01897766485180785</v>
       </c>
       <c r="J11">
-        <v>0.6636519846033764</v>
+        <v>0.4253211769864578</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.125239792099137</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.08511770065864255</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -951,46 +1011,52 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.789676400941175</v>
+        <v>5.761490337837131</v>
       </c>
       <c r="C12">
-        <v>1.681323696370271</v>
+        <v>1.867930811751251</v>
       </c>
       <c r="D12">
-        <v>0.04294246227234311</v>
+        <v>0.06421078461244889</v>
       </c>
       <c r="E12">
-        <v>0.7931409980145077</v>
+        <v>0.7809298053024065</v>
       </c>
       <c r="F12">
-        <v>1.099352170364995</v>
+        <v>0.8308079977344534</v>
       </c>
       <c r="G12">
-        <v>0.9760787500437544</v>
+        <v>0.8214926184606668</v>
       </c>
       <c r="H12">
-        <v>0.08244355958827754</v>
+        <v>0.08026198415324615</v>
       </c>
       <c r="I12">
-        <v>0.02312388539975085</v>
+        <v>0.01900460268633175</v>
       </c>
       <c r="J12">
-        <v>0.553266574624331</v>
+        <v>0.3271140955538669</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1022515848231969</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.06046949883078412</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1004,46 +1070,52 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.750766464277831</v>
+        <v>5.72480302693981</v>
       </c>
       <c r="C13">
-        <v>1.664476120077666</v>
+        <v>1.813424403050817</v>
       </c>
       <c r="D13">
-        <v>0.05599327199158211</v>
+        <v>0.07759512217209164</v>
       </c>
       <c r="E13">
-        <v>0.4113317787665096</v>
+        <v>0.4019839016511284</v>
       </c>
       <c r="F13">
-        <v>0.9044752709348955</v>
+        <v>0.6952018555058999</v>
       </c>
       <c r="G13">
-        <v>0.7651500247768865</v>
+        <v>0.6587523101956236</v>
       </c>
       <c r="H13">
-        <v>0.1347542985971728</v>
+        <v>0.1328611624959279</v>
       </c>
       <c r="I13">
-        <v>0.0214901169936228</v>
+        <v>0.01778144537090398</v>
       </c>
       <c r="J13">
-        <v>0.4470597544420087</v>
+        <v>0.2752021159307674</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.08791277921240237</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.04099079924348814</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1057,46 +1129,52 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.645346467801573</v>
+        <v>5.622002104925173</v>
       </c>
       <c r="C14">
-        <v>1.633126155508307</v>
+        <v>1.754650836805808</v>
       </c>
       <c r="D14">
-        <v>0.06634508046094112</v>
+        <v>0.08634966423119295</v>
       </c>
       <c r="E14">
-        <v>0.2170204752513882</v>
+        <v>0.2096241967020376</v>
       </c>
       <c r="F14">
-        <v>0.7669274567034563</v>
+        <v>0.605179109389745</v>
       </c>
       <c r="G14">
-        <v>0.621627341850342</v>
+        <v>0.540427590660002</v>
       </c>
       <c r="H14">
-        <v>0.1817491053018898</v>
+        <v>0.1800983227139454</v>
       </c>
       <c r="I14">
-        <v>0.01974059885477608</v>
+        <v>0.01651011376959843</v>
       </c>
       <c r="J14">
-        <v>0.375692453270716</v>
+        <v>0.2540694442258342</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08105452632603694</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.02977215249142695</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1110,46 +1188,52 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.582580916499069</v>
+        <v>5.560435764364513</v>
       </c>
       <c r="C15">
-        <v>1.617531854172569</v>
+        <v>1.731731288469462</v>
       </c>
       <c r="D15">
-        <v>0.0689368434149813</v>
+        <v>0.08790999525231769</v>
       </c>
       <c r="E15">
-        <v>0.178513547083277</v>
+        <v>0.1716846493336277</v>
       </c>
       <c r="F15">
-        <v>0.7288421887442524</v>
+        <v>0.5824247569689902</v>
       </c>
       <c r="G15">
-        <v>0.5832330166222164</v>
+        <v>0.5062855692826531</v>
       </c>
       <c r="H15">
-        <v>0.1934463542040703</v>
+        <v>0.191889672588303</v>
       </c>
       <c r="I15">
-        <v>0.01904205658375879</v>
+        <v>0.01604562187390091</v>
       </c>
       <c r="J15">
-        <v>0.3571395340764525</v>
+        <v>0.2537895047776288</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08004384639791873</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.02726612576012144</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1163,46 +1247,52 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.229259314590593</v>
+        <v>5.2124247226742</v>
       </c>
       <c r="C16">
-        <v>1.52149361487858</v>
+        <v>1.631182812867962</v>
       </c>
       <c r="D16">
-        <v>0.06543225169358635</v>
+        <v>0.07988120287065215</v>
       </c>
       <c r="E16">
-        <v>0.171995624840406</v>
+        <v>0.1664631454998542</v>
       </c>
       <c r="F16">
-        <v>0.693035685029713</v>
+        <v>0.5799015371335372</v>
       </c>
       <c r="G16">
-        <v>0.5543436429566526</v>
+        <v>0.4631340548714604</v>
       </c>
       <c r="H16">
-        <v>0.1776590978250709</v>
+        <v>0.1764688795233695</v>
       </c>
       <c r="I16">
-        <v>0.01565703275823527</v>
+        <v>0.01357370769803978</v>
       </c>
       <c r="J16">
-        <v>0.3488345826410608</v>
+        <v>0.3017699120826762</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.08634865187996432</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.02875677225114437</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1216,46 +1306,52 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.014909824777703</v>
+        <v>5.000609083078018</v>
       </c>
       <c r="C17">
-        <v>1.464807033478564</v>
+        <v>1.584314169533855</v>
       </c>
       <c r="D17">
-        <v>0.05704995707836957</v>
+        <v>0.06980337539346948</v>
       </c>
       <c r="E17">
-        <v>0.2559037062675387</v>
+        <v>0.2505381406124485</v>
       </c>
       <c r="F17">
-        <v>0.7363208188520503</v>
+        <v>0.6231356619234063</v>
       </c>
       <c r="G17">
-        <v>0.6052859691471042</v>
+        <v>0.492319445956241</v>
       </c>
       <c r="H17">
-        <v>0.1386967271598252</v>
+        <v>0.1376567984870718</v>
       </c>
       <c r="I17">
-        <v>0.01404028592293827</v>
+        <v>0.01238064169413189</v>
       </c>
       <c r="J17">
-        <v>0.3789792298037895</v>
+        <v>0.3488873999602902</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.09554640885162868</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.03528403060066054</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1269,46 +1365,52 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.895247727079607</v>
+        <v>4.881638126889641</v>
       </c>
       <c r="C18">
-        <v>1.430859299211249</v>
+        <v>1.575381744808737</v>
       </c>
       <c r="D18">
-        <v>0.04475397989970986</v>
+        <v>0.05697314602210923</v>
       </c>
       <c r="E18">
-        <v>0.4906957743539806</v>
+        <v>0.4845090853821858</v>
       </c>
       <c r="F18">
-        <v>0.8637708430742066</v>
+        <v>0.7236874521948948</v>
       </c>
       <c r="G18">
-        <v>0.7454827263544104</v>
+        <v>0.5919746933915917</v>
       </c>
       <c r="H18">
-        <v>0.08659261808527674</v>
+        <v>0.08554381633064878</v>
       </c>
       <c r="I18">
-        <v>0.01342802901320095</v>
+        <v>0.01182668239552331</v>
       </c>
       <c r="J18">
-        <v>0.4527863065817712</v>
+        <v>0.4150618522972138</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1113026292371124</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.04966674226508516</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1322,46 +1424,52 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.860552110893082</v>
+        <v>4.846025807941601</v>
       </c>
       <c r="C19">
-        <v>1.429087785475929</v>
+        <v>1.608634157264703</v>
       </c>
       <c r="D19">
-        <v>0.0331740243687868</v>
+        <v>0.04480938375598242</v>
       </c>
       <c r="E19">
-        <v>0.9287048635500952</v>
+        <v>0.9205971308287815</v>
       </c>
       <c r="F19">
-        <v>1.052305578875576</v>
+        <v>0.8651827228424338</v>
       </c>
       <c r="G19">
-        <v>0.9542117068242675</v>
+        <v>0.7427942253052748</v>
       </c>
       <c r="H19">
-        <v>0.04441971529688971</v>
+        <v>0.04319858928290898</v>
       </c>
       <c r="I19">
-        <v>0.01421626610106674</v>
+        <v>0.01247970454776492</v>
       </c>
       <c r="J19">
-        <v>0.5591246760711641</v>
+        <v>0.4965471061093751</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1325550199520542</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.07104136243100001</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1375,46 +1483,52 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.066599054984465</v>
+        <v>5.046265765333885</v>
       </c>
       <c r="C20">
-        <v>1.49902680837107</v>
+        <v>1.743353415858394</v>
       </c>
       <c r="D20">
-        <v>0.0220576149379319</v>
+        <v>0.03231940286575963</v>
       </c>
       <c r="E20">
-        <v>1.919647565049402</v>
+        <v>1.90543640941921</v>
       </c>
       <c r="F20">
-        <v>1.425595606771878</v>
+        <v>1.129062184240567</v>
       </c>
       <c r="G20">
-        <v>1.369097991975366</v>
+        <v>1.049076103741626</v>
       </c>
       <c r="H20">
-        <v>0.02881366619588999</v>
+        <v>0.02685565565042403</v>
       </c>
       <c r="I20">
-        <v>0.01845071786630825</v>
+        <v>0.01571210193635064</v>
       </c>
       <c r="J20">
-        <v>0.7635965530841702</v>
+        <v>0.6180095204305047</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1674609175917787</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1143100096399721</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1428,46 +1542,52 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.714368086419142</v>
+        <v>5.681753449158123</v>
       </c>
       <c r="C21">
-        <v>1.683496020288771</v>
+        <v>1.957753817062041</v>
       </c>
       <c r="D21">
-        <v>0.02174321886408848</v>
+        <v>0.03663912159314009</v>
       </c>
       <c r="E21">
-        <v>2.264268819789137</v>
+        <v>2.242597534850617</v>
       </c>
       <c r="F21">
-        <v>1.622321693227804</v>
+        <v>1.200947614141697</v>
       </c>
       <c r="G21">
-        <v>1.568444818519509</v>
+        <v>1.259240247162637</v>
       </c>
       <c r="H21">
-        <v>0.03856470466406137</v>
+        <v>0.03544159771644484</v>
       </c>
       <c r="I21">
-        <v>0.0265774753866328</v>
+        <v>0.02162216869936273</v>
       </c>
       <c r="J21">
-        <v>0.8515741590522623</v>
+        <v>0.5011142486034572</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1555022402057773</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1234097631443412</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1481,46 +1601,52 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.139452352804312</v>
+        <v>6.097892640090265</v>
       </c>
       <c r="C22">
-        <v>1.797722628304712</v>
+        <v>2.088135252993709</v>
       </c>
       <c r="D22">
-        <v>0.02174433311794388</v>
+        <v>0.04016350787255618</v>
       </c>
       <c r="E22">
-        <v>2.439042930922867</v>
+        <v>2.412268952107851</v>
       </c>
       <c r="F22">
-        <v>1.744823273818213</v>
+        <v>1.238789257496407</v>
       </c>
       <c r="G22">
-        <v>1.691439092533699</v>
+        <v>1.399299402184823</v>
       </c>
       <c r="H22">
-        <v>0.04508150237193664</v>
+        <v>0.04111593635233213</v>
       </c>
       <c r="I22">
-        <v>0.03231727497693537</v>
+        <v>0.02560131865995885</v>
       </c>
       <c r="J22">
-        <v>0.9055226551473936</v>
+        <v>0.4227541768464675</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1468924308070392</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1285100583226289</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1534,46 +1660,52 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.912576586905118</v>
+        <v>5.876052236512976</v>
       </c>
       <c r="C23">
-        <v>1.730083928854981</v>
+        <v>2.014168899302888</v>
       </c>
       <c r="D23">
-        <v>0.02160514758605458</v>
+        <v>0.03761994345607178</v>
       </c>
       <c r="E23">
-        <v>2.345692413479895</v>
+        <v>2.321817646136907</v>
       </c>
       <c r="F23">
-        <v>1.687194656216576</v>
+        <v>1.231881039404271</v>
       </c>
       <c r="G23">
-        <v>1.63471550595861</v>
+        <v>1.322970407889869</v>
       </c>
       <c r="H23">
-        <v>0.04156753350283182</v>
+        <v>0.03808074890971991</v>
       </c>
       <c r="I23">
-        <v>0.02897055713059427</v>
+        <v>0.02317652300599882</v>
       </c>
       <c r="J23">
-        <v>0.8812509973980696</v>
+        <v>0.4831640268751443</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1537449681951522</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1285576235605639</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1587,46 +1719,52 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.057699551615372</v>
+        <v>5.037205439069339</v>
       </c>
       <c r="C24">
-        <v>1.487365093777726</v>
+        <v>1.735691795394018</v>
       </c>
       <c r="D24">
-        <v>0.02126717033729264</v>
+        <v>0.03104664739793606</v>
       </c>
       <c r="E24">
-        <v>1.996119698286662</v>
+        <v>1.981518020797395</v>
       </c>
       <c r="F24">
-        <v>1.460948439247176</v>
+        <v>1.155685023606452</v>
       </c>
       <c r="G24">
-        <v>1.410018282291219</v>
+        <v>1.07829439811448</v>
       </c>
       <c r="H24">
-        <v>0.02938099926346727</v>
+        <v>0.02738282044035634</v>
       </c>
       <c r="I24">
-        <v>0.01817171852372912</v>
+        <v>0.01529730181106892</v>
       </c>
       <c r="J24">
-        <v>0.7843189835553233</v>
+        <v>0.6344155843345192</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1727507161877355</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1197228207469756</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1640,46 +1778,52 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.143157907999864</v>
+        <v>4.134342883233899</v>
       </c>
       <c r="C25">
-        <v>1.23009137517937</v>
+        <v>1.419497936103596</v>
       </c>
       <c r="D25">
-        <v>0.0208205403702344</v>
+        <v>0.0277565703196494</v>
       </c>
       <c r="E25">
-        <v>1.626132132601825</v>
+        <v>1.618178143255307</v>
       </c>
       <c r="F25">
-        <v>1.226027144358881</v>
+        <v>0.9946181714358886</v>
       </c>
       <c r="G25">
-        <v>1.176799170950801</v>
+        <v>0.9092739571946282</v>
       </c>
       <c r="H25">
-        <v>0.01831991545843659</v>
+        <v>0.0173372746889553</v>
       </c>
       <c r="I25">
-        <v>0.009358691956650844</v>
+        <v>0.00844279539929893</v>
       </c>
       <c r="J25">
-        <v>0.6844568390997949</v>
+        <v>0.5890467422714778</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1804015959123113</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.09807613074493915</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1691,6 +1835,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
